--- a/Assets/4.Resources/textdatasheet.xlsx
+++ b/Assets/4.Resources/textdatasheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\moonshot\UniRun\Assets\4.Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EACD44-EEAE-47EB-800E-AC94572C992A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A555BF-1E01-40E7-90E0-943C32846873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10050" yWindow="2640" windowWidth="18510" windowHeight="10200" xr2:uid="{B83F5B13-60E2-423E-8CAC-EF9A850246CB}"/>
+    <workbookView xWindow="7740" yWindow="4230" windowWidth="18510" windowHeight="10200" xr2:uid="{B83F5B13-60E2-423E-8CAC-EF9A850246CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,19 +39,15 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Frame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Left</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Mid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Right</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -418,7 +414,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -450,37 +446,19 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
       <c r="C3">
         <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
       <c r="D4">
         <v>1</v>
       </c>
@@ -499,26 +477,44 @@
       <c r="A7">
         <v>5</v>
       </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -534,85 +530,136 @@
       <c r="A14">
         <v>12</v>
       </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
